--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC4600-AC54-43E5-A189-AFD86A0D8EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B88BC-8088-4B89-A83C-9BFEBDAFC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B72B09E8-A954-412D-973D-4D6537A5C659}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B72B09E8-A954-412D-973D-4D6537A5C659}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -124,265 +124,259 @@
     <t>L102</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start day</t>
+  </si>
+  <si>
+    <t>Start month</t>
+  </si>
+  <si>
+    <t>Start year</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>StartH</t>
+  </si>
+  <si>
+    <t>StartMin</t>
+  </si>
+  <si>
+    <t>EndH</t>
+  </si>
+  <si>
+    <t>EndMin</t>
+  </si>
+  <si>
+    <t>Subjects (séparés d'un '-')</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Barbeau</t>
+  </si>
+  <si>
+    <t>Timothé</t>
+  </si>
+  <si>
+    <t>Solé</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>Cerfbeer</t>
+  </si>
+  <si>
+    <t>Christiane</t>
+  </si>
+  <si>
+    <t>Brunelle</t>
+  </si>
+  <si>
+    <t>Constantin</t>
+  </si>
+  <si>
+    <t>Poussin</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Vannier</t>
+  </si>
+  <si>
+    <t>Napoléon</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>Josette</t>
+  </si>
+  <si>
+    <t>Paquin</t>
+  </si>
+  <si>
+    <t>Achille</t>
+  </si>
+  <si>
+    <t>Cochet</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>D'Aboville</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>UNI014</t>
+  </si>
+  <si>
+    <t>Basic Chemistry</t>
+  </si>
+  <si>
+    <t>UNI015</t>
+  </si>
+  <si>
+    <t>Basic Biology</t>
+  </si>
+  <si>
+    <t>UNI016</t>
+  </si>
+  <si>
+    <t>Basic Engineering</t>
+  </si>
+  <si>
+    <t>UNI024</t>
+  </si>
+  <si>
+    <t>Advanced Chemistry</t>
+  </si>
+  <si>
+    <t>UNI025</t>
+  </si>
+  <si>
+    <t>Advanced Biology</t>
+  </si>
+  <si>
+    <t>UNI026</t>
+  </si>
+  <si>
+    <t>Advanced Engineering</t>
+  </si>
+  <si>
+    <t>UNI031</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>UNI032</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics</t>
+  </si>
+  <si>
+    <t>UNI033</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>UNI034</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>UNI035</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>UNI036</t>
+  </si>
+  <si>
+    <t>Mechanical Systems</t>
+  </si>
+  <si>
+    <t>FF33A8</t>
+  </si>
+  <si>
+    <t>33FF57</t>
+  </si>
+  <si>
+    <t>33A8FF</t>
+  </si>
+  <si>
+    <t>FFD700</t>
+  </si>
+  <si>
+    <t>FF8C00</t>
+  </si>
+  <si>
+    <t>DC143C</t>
+  </si>
+  <si>
+    <t>8A2BE2</t>
+  </si>
+  <si>
+    <t>00FA9A</t>
+  </si>
+  <si>
+    <t>1E90FF</t>
+  </si>
+  <si>
+    <t>FF4500</t>
+  </si>
+  <si>
+    <t>FF5733</t>
+  </si>
+  <si>
+    <t>UNI011-UNI021-UNI031-UNI041-UNI051</t>
+  </si>
+  <si>
+    <t>UNI012-UNI022-UNI032-UNI042-UNI052</t>
+  </si>
+  <si>
+    <t>UNI013-UNI023-UNI033-UNI043-UNI053</t>
+  </si>
+  <si>
+    <t>UNI014-UNI024-UNI034-UNI044-UNI054</t>
+  </si>
+  <si>
+    <t>UNI015-UNI025-UNI035-UNI045-UNI055</t>
+  </si>
+  <si>
+    <t>UNI016-UNI026-UNI036-UNI046-UNI056</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>FF1493</t>
+  </si>
+  <si>
+    <t>9932CC</t>
+  </si>
+  <si>
+    <t>00CED1</t>
+  </si>
+  <si>
+    <t>4682B4</t>
+  </si>
+  <si>
+    <t>FFA500</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>L103</t>
-  </si>
-  <si>
-    <t>L104</t>
-  </si>
-  <si>
-    <t>L105</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Start day</t>
-  </si>
-  <si>
-    <t>Start month</t>
-  </si>
-  <si>
-    <t>Start year</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>StartH</t>
-  </si>
-  <si>
-    <t>StartMin</t>
-  </si>
-  <si>
-    <t>EndH</t>
-  </si>
-  <si>
-    <t>EndMin</t>
-  </si>
-  <si>
-    <t>Subjects (séparés d'un '-')</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Barbeau</t>
-  </si>
-  <si>
-    <t>Timothé</t>
-  </si>
-  <si>
-    <t>Solé</t>
-  </si>
-  <si>
-    <t>Renaud</t>
-  </si>
-  <si>
-    <t>Cerfbeer</t>
-  </si>
-  <si>
-    <t>Christiane</t>
-  </si>
-  <si>
-    <t>Brunelle</t>
-  </si>
-  <si>
-    <t>Constantin</t>
-  </si>
-  <si>
-    <t>Poussin</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Vannier</t>
-  </si>
-  <si>
-    <t>Napoléon</t>
-  </si>
-  <si>
-    <t>Matthieu</t>
-  </si>
-  <si>
-    <t>Josette</t>
-  </si>
-  <si>
-    <t>Paquin</t>
-  </si>
-  <si>
-    <t>Achille</t>
-  </si>
-  <si>
-    <t>Cochet</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>D'Aboville</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>UNI014</t>
-  </si>
-  <si>
-    <t>Basic Chemistry</t>
-  </si>
-  <si>
-    <t>UNI015</t>
-  </si>
-  <si>
-    <t>Basic Biology</t>
-  </si>
-  <si>
-    <t>UNI016</t>
-  </si>
-  <si>
-    <t>Basic Engineering</t>
-  </si>
-  <si>
-    <t>UNI024</t>
-  </si>
-  <si>
-    <t>Advanced Chemistry</t>
-  </si>
-  <si>
-    <t>UNI025</t>
-  </si>
-  <si>
-    <t>Advanced Biology</t>
-  </si>
-  <si>
-    <t>UNI026</t>
-  </si>
-  <si>
-    <t>Advanced Engineering</t>
-  </si>
-  <si>
-    <t>UNI031</t>
-  </si>
-  <si>
-    <t>Applied Mathematics</t>
-  </si>
-  <si>
-    <t>UNI032</t>
-  </si>
-  <si>
-    <t>Quantum Mechanics</t>
-  </si>
-  <si>
-    <t>UNI033</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>UNI034</t>
-  </si>
-  <si>
-    <t>Organic Chemistry</t>
-  </si>
-  <si>
-    <t>UNI035</t>
-  </si>
-  <si>
-    <t>Genetics</t>
-  </si>
-  <si>
-    <t>UNI036</t>
-  </si>
-  <si>
-    <t>Mechanical Systems</t>
-  </si>
-  <si>
-    <t>FF33A8</t>
-  </si>
-  <si>
-    <t>33FF57</t>
-  </si>
-  <si>
-    <t>33A8FF</t>
-  </si>
-  <si>
-    <t>FFD700</t>
-  </si>
-  <si>
-    <t>FF8C00</t>
-  </si>
-  <si>
-    <t>DC143C</t>
-  </si>
-  <si>
-    <t>8A2BE2</t>
-  </si>
-  <si>
-    <t>00FA9A</t>
-  </si>
-  <si>
-    <t>1E90FF</t>
-  </si>
-  <si>
-    <t>FF4500</t>
-  </si>
-  <si>
-    <t>FF5733</t>
-  </si>
-  <si>
-    <t>UNI011-UNI021-UNI031-UNI041-UNI051</t>
-  </si>
-  <si>
-    <t>UNI012-UNI022-UNI032-UNI042-UNI052</t>
-  </si>
-  <si>
-    <t>UNI013-UNI023-UNI033-UNI043-UNI053</t>
-  </si>
-  <si>
-    <t>UNI014-UNI024-UNI034-UNI044-UNI054</t>
-  </si>
-  <si>
-    <t>UNI015-UNI025-UNI035-UNI045-UNI055</t>
-  </si>
-  <si>
-    <t>UNI016-UNI026-UNI036-UNI046-UNI056</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>L106</t>
-  </si>
-  <si>
-    <t>FF1493</t>
-  </si>
-  <si>
-    <t>9932CC</t>
-  </si>
-  <si>
-    <t>00CED1</t>
-  </si>
-  <si>
-    <t>4682B4</t>
-  </si>
-  <si>
-    <t>FFA500</t>
   </si>
 </sst>
 </file>
@@ -763,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB5D4C-C765-4C0B-97C4-EF4AAF1E2B40}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -771,10 +765,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +781,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -795,7 +789,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -803,7 +797,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>2025</v>
@@ -811,10 +805,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -834,16 +828,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -951,27 +945,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3E0C2-CBFD-441F-AB28-E61B30CAF7BA}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,15 +1059,15 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1076,15 +1076,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1093,15 +1093,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1110,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1161,15 +1161,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1178,15 +1178,15 @@
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1195,15 +1195,15 @@
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1212,109 +1212,109 @@
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1">
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1">
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1404,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1418,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,13 +1432,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1446,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1460,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,13 +1474,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,13 +1516,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1544,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FFBB7-0715-45C0-A6D5-76680980035E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1584,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1592,39 +1592,23 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B88BC-8088-4B89-A83C-9BFEBDAFC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D9157-A123-40A2-B44C-B2ED4FE6DF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B72B09E8-A954-412D-973D-4D6537A5C659}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B72B09E8-A954-412D-973D-4D6537A5C659}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -757,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB5D4C-C765-4C0B-97C4-EF4AAF1E2B40}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -945,33 +945,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3E0C2-CBFD-441F-AB28-E61B30CAF7BA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D9157-A123-40A2-B44C-B2ED4FE6DF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98ECF0-DA90-4D5B-9014-C93B914423A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B72B09E8-A954-412D-973D-4D6537A5C659}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>L103</t>
+  </si>
+  <si>
+    <t>TDB</t>
+  </si>
+  <si>
+    <t>TDC</t>
   </si>
 </sst>
 </file>
@@ -945,28 +951,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3E0C2-CBFD-441F-AB28-E61B30CAF7BA}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267F810-59D1-424D-BA87-5A31F73B9603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A4E9F-C391-40D2-9DBA-B614E0D5F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28890" yWindow="-3720" windowWidth="23010" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
     <t>Setting</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>L104</t>
+  </si>
+  <si>
+    <t>L105</t>
+  </si>
+  <si>
+    <t>L106</t>
   </si>
 </sst>
 </file>
@@ -603,19 +612,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,7 +927,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1108,9 +1112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1148,9 +1154,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1213,325 +1243,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>24</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>27</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>21</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>30</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1556,184 +1586,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1746,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1966,13 +1996,13 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
@@ -1987,13 +2017,13 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
@@ -2014,46 +2044,46 @@
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="6">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
@@ -2115,16 +2145,16 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
@@ -2136,16 +2166,16 @@
       <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
@@ -2163,49 +2193,49 @@
       <c r="AH3">
         <v>1</v>
       </c>
-      <c r="AI3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="6">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
@@ -2267,16 +2297,16 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
@@ -2288,16 +2318,16 @@
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="6">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
@@ -2315,49 +2345,49 @@
       <c r="AH4">
         <v>1</v>
       </c>
-      <c r="AI4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="6">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
@@ -2419,16 +2449,16 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
@@ -2440,16 +2470,16 @@
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Z5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
@@ -2467,49 +2497,49 @@
       <c r="AH5">
         <v>1</v>
       </c>
-      <c r="AI5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="6">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
@@ -2571,16 +2601,16 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
@@ -2592,16 +2622,16 @@
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
@@ -2619,49 +2649,49 @@
       <c r="AH6">
         <v>1</v>
       </c>
-      <c r="AI6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="6">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
@@ -2675,1060 +2705,1060 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>1</v>
-      </c>
-      <c r="X8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>1</v>
-      </c>
-      <c r="X11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>1</v>
-      </c>
-      <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>1</v>
-      </c>
-      <c r="X13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="6">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>0</v>
       </c>
     </row>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A4E9F-C391-40D2-9DBA-B614E0D5F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98581DB9-5264-41A8-9B0F-FC17F67FAEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="-3720" windowWidth="23010" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34170" yWindow="-2700" windowWidth="24255" windowHeight="16575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -379,193 +379,193 @@
     <t>A3</t>
   </si>
   <si>
+    <t>TDB</t>
+  </si>
+  <si>
+    <t>UNI014</t>
+  </si>
+  <si>
+    <t>Basic Chemistry</t>
+  </si>
+  <si>
+    <t>33A8FF</t>
+  </si>
+  <si>
+    <t>UNI015</t>
+  </si>
+  <si>
+    <t>Basic Biology</t>
+  </si>
+  <si>
+    <t>FFD700</t>
+  </si>
+  <si>
+    <t>UNI016</t>
+  </si>
+  <si>
+    <t>Basic Engineering</t>
+  </si>
+  <si>
+    <t>FF8C00</t>
+  </si>
+  <si>
+    <t>UNI024</t>
+  </si>
+  <si>
+    <t>Advanced Chemistry</t>
+  </si>
+  <si>
+    <t>1E90FF</t>
+  </si>
+  <si>
+    <t>UNI025</t>
+  </si>
+  <si>
+    <t>Advanced Biology</t>
+  </si>
+  <si>
+    <t>UNI026</t>
+  </si>
+  <si>
+    <t>Advanced Engineering</t>
+  </si>
+  <si>
+    <t>FF4500</t>
+  </si>
+  <si>
+    <t>UNI031</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>FF1493</t>
+  </si>
+  <si>
+    <t>UNI032</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics</t>
+  </si>
+  <si>
+    <t>9932CC</t>
+  </si>
+  <si>
+    <t>UNI033</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>00CED1</t>
+  </si>
+  <si>
+    <t>UNI034</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>4682B4</t>
+  </si>
+  <si>
+    <t>UNI035</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>FFA500</t>
+  </si>
+  <si>
+    <t>UNI036</t>
+  </si>
+  <si>
+    <t>Mechanical Systems</t>
+  </si>
+  <si>
+    <t>UNI011-UNI021-UNI031-UNI041-UNI051</t>
+  </si>
+  <si>
+    <t>UNI012-UNI022-UNI032-UNI042-UNI052</t>
+  </si>
+  <si>
+    <t>Achille</t>
+  </si>
+  <si>
+    <t>Cochet</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>UNI013-UNI023-UNI033-UNI043-UNI053</t>
+  </si>
+  <si>
+    <t>UNI014-UNI024-UNI034-UNI044-UNI054</t>
+  </si>
+  <si>
+    <t>Napoléon</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>UNI015-UNI025-UNI035-UNI045-UNI055</t>
+  </si>
+  <si>
+    <t>Josette</t>
+  </si>
+  <si>
+    <t>Paquin</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>UNI016-UNI026-UNI036-UNI046-UNI056</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>DAboville</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>L104</t>
+  </si>
+  <si>
+    <t>L105</t>
+  </si>
+  <si>
+    <t>L106</t>
+  </si>
+  <si>
     <t>TDC</t>
-  </si>
-  <si>
-    <t>TDB</t>
-  </si>
-  <si>
-    <t>UNI014</t>
-  </si>
-  <si>
-    <t>Basic Chemistry</t>
-  </si>
-  <si>
-    <t>33A8FF</t>
-  </si>
-  <si>
-    <t>UNI015</t>
-  </si>
-  <si>
-    <t>Basic Biology</t>
-  </si>
-  <si>
-    <t>FFD700</t>
-  </si>
-  <si>
-    <t>UNI016</t>
-  </si>
-  <si>
-    <t>Basic Engineering</t>
-  </si>
-  <si>
-    <t>FF8C00</t>
-  </si>
-  <si>
-    <t>UNI024</t>
-  </si>
-  <si>
-    <t>Advanced Chemistry</t>
-  </si>
-  <si>
-    <t>1E90FF</t>
-  </si>
-  <si>
-    <t>UNI025</t>
-  </si>
-  <si>
-    <t>Advanced Biology</t>
-  </si>
-  <si>
-    <t>UNI026</t>
-  </si>
-  <si>
-    <t>Advanced Engineering</t>
-  </si>
-  <si>
-    <t>FF4500</t>
-  </si>
-  <si>
-    <t>UNI031</t>
-  </si>
-  <si>
-    <t>Applied Mathematics</t>
-  </si>
-  <si>
-    <t>FF1493</t>
-  </si>
-  <si>
-    <t>UNI032</t>
-  </si>
-  <si>
-    <t>Quantum Mechanics</t>
-  </si>
-  <si>
-    <t>9932CC</t>
-  </si>
-  <si>
-    <t>UNI033</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>00CED1</t>
-  </si>
-  <si>
-    <t>UNI034</t>
-  </si>
-  <si>
-    <t>Organic Chemistry</t>
-  </si>
-  <si>
-    <t>4682B4</t>
-  </si>
-  <si>
-    <t>UNI035</t>
-  </si>
-  <si>
-    <t>Genetics</t>
-  </si>
-  <si>
-    <t>FFA500</t>
-  </si>
-  <si>
-    <t>UNI036</t>
-  </si>
-  <si>
-    <t>Mechanical Systems</t>
-  </si>
-  <si>
-    <t>UNI011-UNI021-UNI031-UNI041-UNI051</t>
-  </si>
-  <si>
-    <t>UNI012-UNI022-UNI032-UNI042-UNI052</t>
-  </si>
-  <si>
-    <t>Achille</t>
-  </si>
-  <si>
-    <t>Cochet</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>UNI013-UNI023-UNI033-UNI043-UNI053</t>
-  </si>
-  <si>
-    <t>UNI014-UNI024-UNI034-UNI044-UNI054</t>
-  </si>
-  <si>
-    <t>Napoléon</t>
-  </si>
-  <si>
-    <t>Matthieu</t>
-  </si>
-  <si>
-    <t>UNI015-UNI025-UNI035-UNI045-UNI055</t>
-  </si>
-  <si>
-    <t>Josette</t>
-  </si>
-  <si>
-    <t>Paquin</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>UNI016-UNI026-UNI036-UNI046-UNI056</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>DAboville</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>L104</t>
-  </si>
-  <si>
-    <t>L105</t>
-  </si>
-  <si>
-    <t>L106</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1215,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1324,15 +1324,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1341,15 +1341,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1358,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,10 +1414,10 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1426,15 +1426,15 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1443,15 +1443,15 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1460,15 +1460,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>116</v>
@@ -1477,15 +1477,15 @@
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>116</v>
@@ -1494,15 +1494,15 @@
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>116</v>
@@ -1511,15 +1511,15 @@
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>116</v>
@@ -1528,15 +1528,15 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>116</v>
@@ -1545,15 +1545,15 @@
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>116</v>
@@ -1610,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,13 +1646,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,13 +1660,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>161</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,13 +1730,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>166</v>
-      </c>
-      <c r="D12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
         <v>168</v>
       </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>1</v>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98581DB9-5264-41A8-9B0F-FC17F67FAEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B9C4E-82F7-4509-9627-FD914A35447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34170" yWindow="-2700" windowWidth="24255" windowHeight="16575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34170" yWindow="-2700" windowWidth="24255" windowHeight="16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <sheet name="Teachers" sheetId="6" r:id="rId6"/>
     <sheet name="TeacherAvailability" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -926,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B9C4E-82F7-4509-9627-FD914A35447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC0C69-A68A-4C2D-A9C9-B74D800B7E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34170" yWindow="-2700" windowWidth="24255" windowHeight="16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>

--- a/Inputs/University.xlsx
+++ b/Inputs/University.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbonn\Desktop\ESILV\A4\PI2\GitHub_PI2\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinii\PI2_Project\Goodwing-Timetabler-Frontend-Plugins\Goodwing-Timetabler\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC0C69-A68A-4C2D-A9C9-B74D800B7E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C15AD-217B-42CC-8A76-6128913565D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University" sheetId="1" r:id="rId1"/>
@@ -182,12 +182,6 @@
     <t>Subjects (séparés d'un '-')</t>
   </si>
   <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Barbeau</t>
-  </si>
-  <si>
     <t>Timothé</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>TDC</t>
+  </si>
+  <si>
+    <t>Ilan</t>
+  </si>
+  <si>
+    <t>Zini</t>
   </si>
 </sst>
 </file>
@@ -943,7 +943,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1004,7 +1004,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1127,11 +1127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1175,7 +1175,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1210,7 +1210,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1228,10 +1228,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1247,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1337,15 +1337,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1354,15 +1354,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1371,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1427,10 +1427,10 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1439,15 +1439,15 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1456,15 +1456,15 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1473,103 +1473,103 @@
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2">
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2">
         <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2">
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="2">
         <v>30</v>
@@ -1587,11 +1587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1645,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,13 +1673,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
         <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
         <v>164</v>
-      </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1771,13 +1771,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1793,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="49" width="12" customWidth="1"/>
@@ -1801,159 +1801,159 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>106</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
